--- a/data/tehilim-data/105.xlsx
+++ b/data/tehilim-data/105.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="374">
   <si>
     <t>original</t>
   </si>
@@ -61,34 +61,37 @@
     <t>עֲלִילוֹתָיו</t>
   </si>
   <si>
-    <t>дела Его</t>
+    <t>о поступках его</t>
   </si>
   <si>
     <t>ב</t>
   </si>
   <si>
-    <t>שִׁירוּ־לוֹ</t>
-  </si>
-  <si>
-    <t>пойте Ему</t>
-  </si>
-  <si>
-    <t>זַמְּרוּ־לוֹ</t>
-  </si>
-  <si>
-    <t>воспевайте Ему</t>
-  </si>
-  <si>
-    <t>שִׂיחוּ</t>
-  </si>
-  <si>
-    <t>размышляйте</t>
-  </si>
-  <si>
-    <t>בְּכָל־נִפְלְאוֹתָיו</t>
-  </si>
-  <si>
-    <t>о всех чудесах Его</t>
+    <t>שִׁירוּ</t>
+  </si>
+  <si>
+    <t>воспевайте</t>
+  </si>
+  <si>
+    <t>לוֹ</t>
+  </si>
+  <si>
+    <t>ему</t>
+  </si>
+  <si>
+    <t>זַמְּרוּ</t>
+  </si>
+  <si>
+    <t>שִׂיחוּ</t>
+  </si>
+  <si>
+    <t>говорите</t>
+  </si>
+  <si>
+    <t>בְּכָל-נִפְלְאוֹתָיו</t>
+  </si>
+  <si>
+    <t>обо всех чудесах его</t>
   </si>
   <si>
     <t>ג</t>
@@ -145,7 +148,7 @@
     <t>וְעֻזּוֹ</t>
   </si>
   <si>
-    <t>и силы Его</t>
+    <t>и могущество его</t>
   </si>
   <si>
     <t>בַּקְּשׁוּ</t>
@@ -178,811 +181,829 @@
     <t>נִפְלְאוֹתָיו</t>
   </si>
   <si>
-    <t>чудеса Его</t>
-  </si>
-  <si>
-    <t>אֲשֶׁר־עָשָׂה</t>
-  </si>
-  <si>
-    <t>которые сотворил</t>
-  </si>
-  <si>
-    <t>מוֹפְתָיו</t>
+    <t>о чудесах его</t>
+  </si>
+  <si>
+    <t>אֲשֶׁר</t>
+  </si>
+  <si>
+    <t>которые</t>
+  </si>
+  <si>
+    <t>עָשָׂה</t>
+  </si>
+  <si>
+    <t>сделал</t>
+  </si>
+  <si>
+    <t>מֹפְתָיו</t>
+  </si>
+  <si>
+    <t>о знамениях его</t>
+  </si>
+  <si>
+    <t>וּמִשְׁפְּטֵי</t>
+  </si>
+  <si>
+    <t>и правосудии</t>
+  </si>
+  <si>
+    <t>פִיו</t>
+  </si>
+  <si>
+    <t>уст его</t>
+  </si>
+  <si>
+    <t>ו</t>
+  </si>
+  <si>
+    <t>זֶרַע</t>
+  </si>
+  <si>
+    <t>потомки</t>
+  </si>
+  <si>
+    <t>אַבְרָהָם</t>
+  </si>
+  <si>
+    <t>Авраама</t>
+  </si>
+  <si>
+    <t>עַבְדּוֹ</t>
+  </si>
+  <si>
+    <t>раба Его</t>
+  </si>
+  <si>
+    <t>בְּנֵי</t>
+  </si>
+  <si>
+    <t>сыны</t>
+  </si>
+  <si>
+    <t>יַעֲקֹב</t>
+  </si>
+  <si>
+    <t>Иакова</t>
+  </si>
+  <si>
+    <t>בְּחִירָיו</t>
+  </si>
+  <si>
+    <t>избранники Его</t>
+  </si>
+  <si>
+    <t>ז</t>
+  </si>
+  <si>
+    <t>הוּא</t>
+  </si>
+  <si>
+    <t>Он</t>
+  </si>
+  <si>
+    <t>Господь</t>
+  </si>
+  <si>
+    <t>אֱלֹהֵינוּ</t>
+  </si>
+  <si>
+    <t>Бог наш</t>
+  </si>
+  <si>
+    <t>בְּכָל־הָאָרֶץ</t>
+  </si>
+  <si>
+    <t>по всей земле</t>
+  </si>
+  <si>
+    <t>מִשְׁפָּטָיו</t>
+  </si>
+  <si>
+    <t>правосудие его</t>
+  </si>
+  <si>
+    <t>ח</t>
+  </si>
+  <si>
+    <t>זָכַר</t>
+  </si>
+  <si>
+    <t>помнит</t>
+  </si>
+  <si>
+    <t>לְעֹולָם</t>
+  </si>
+  <si>
+    <t>вечно</t>
+  </si>
+  <si>
+    <t>בְּרִיתוֹ</t>
+  </si>
+  <si>
+    <t>завет Свой</t>
+  </si>
+  <si>
+    <t>דָּבָר</t>
+  </si>
+  <si>
+    <t>слово</t>
+  </si>
+  <si>
+    <t>צִוָּה</t>
+  </si>
+  <si>
+    <t>завещанное</t>
+  </si>
+  <si>
+    <t>לְאֶלֶף</t>
+  </si>
+  <si>
+    <t>в тысячу</t>
+  </si>
+  <si>
+    <t>דּוֹר</t>
+  </si>
+  <si>
+    <t>родов</t>
+  </si>
+  <si>
+    <t>ט</t>
+  </si>
+  <si>
+    <t>אֲשֶׁר</t>
+  </si>
+  <si>
+    <t>который</t>
+  </si>
+  <si>
+    <t>כָּרַת</t>
+  </si>
+  <si>
+    <t>завещал</t>
+  </si>
+  <si>
+    <t>אֶת־אַבְרָהָם</t>
+  </si>
+  <si>
+    <t>Аврааму</t>
+  </si>
+  <si>
+    <t>וּשְׁבוּעָתוֹ</t>
+  </si>
+  <si>
+    <t>и клятву Свою</t>
+  </si>
+  <si>
+    <t>לְיִשְׂחָק</t>
+  </si>
+  <si>
+    <t>Исааку</t>
+  </si>
+  <si>
+    <t>י</t>
+  </si>
+  <si>
+    <t>וַיַּעֲמִידֶהָ</t>
+  </si>
+  <si>
+    <t>поставил</t>
+  </si>
+  <si>
+    <t>לְיַעֲקֹב</t>
+  </si>
+  <si>
+    <t>Иакову</t>
+  </si>
+  <si>
+    <t>לְחֹק</t>
+  </si>
+  <si>
+    <t>в закон</t>
+  </si>
+  <si>
+    <t>לְיִשְׂרָאֵל</t>
+  </si>
+  <si>
+    <t>Израилю</t>
+  </si>
+  <si>
+    <t>בְּרִית</t>
+  </si>
+  <si>
+    <t>завет</t>
+  </si>
+  <si>
+    <t>עוֹלָם</t>
+  </si>
+  <si>
+    <t>вечный</t>
+  </si>
+  <si>
+    <t>יא</t>
+  </si>
+  <si>
+    <t>לֵאמֹר</t>
+  </si>
+  <si>
+    <t>говоря</t>
+  </si>
+  <si>
+    <t>לְךָ</t>
+  </si>
+  <si>
+    <t>тебе</t>
+  </si>
+  <si>
+    <t>אֶתֵּן</t>
+  </si>
+  <si>
+    <t>дам</t>
+  </si>
+  <si>
+    <t>אֶת־אֶרֶץ</t>
+  </si>
+  <si>
+    <t>землю</t>
+  </si>
+  <si>
+    <t>כְּנָעַן</t>
+  </si>
+  <si>
+    <t>Канаан</t>
+  </si>
+  <si>
+    <t>חֶבֶל</t>
+  </si>
+  <si>
+    <t>вервиею</t>
+  </si>
+  <si>
+    <t>נַחֲלַת</t>
+  </si>
+  <si>
+    <t>наследственного</t>
+  </si>
+  <si>
+    <t>יב</t>
+  </si>
+  <si>
+    <t>בִּהְיוֹתָם</t>
+  </si>
+  <si>
+    <t>когда</t>
+  </si>
+  <si>
+    <t>מְתֵי</t>
+  </si>
+  <si>
+    <t>их было</t>
+  </si>
+  <si>
+    <t>מִסְפָּר</t>
+  </si>
+  <si>
+    <t>немного</t>
+  </si>
+  <si>
+    <t>כִּמְעַט</t>
+  </si>
+  <si>
+    <t>очень</t>
+  </si>
+  <si>
+    <t>וְגָרִים</t>
+  </si>
+  <si>
+    <t>и пришельцы</t>
+  </si>
+  <si>
+    <t>בָּה</t>
+  </si>
+  <si>
+    <t>в ней</t>
+  </si>
+  <si>
+    <t>יג</t>
+  </si>
+  <si>
+    <t>וַיְהִי</t>
+  </si>
+  <si>
+    <t>и переходили</t>
+  </si>
+  <si>
+    <t>בְּנָדְתָם</t>
+  </si>
+  <si>
+    <t>от народа</t>
+  </si>
+  <si>
+    <t>מִגּוֹי</t>
+  </si>
+  <si>
+    <t>к народу</t>
+  </si>
+  <si>
+    <t>אֶל־גּוֹי</t>
+  </si>
+  <si>
+    <t>от царства</t>
+  </si>
+  <si>
+    <t>מִמַּמְלָכָה</t>
+  </si>
+  <si>
+    <t>к иному</t>
+  </si>
+  <si>
+    <t>אֶל־עַם אַחֵר</t>
+  </si>
+  <si>
+    <t>народу</t>
+  </si>
+  <si>
+    <t>יד</t>
+  </si>
+  <si>
+    <t>לֹא</t>
+  </si>
+  <si>
+    <t>не</t>
+  </si>
+  <si>
+    <t>הִנִּיחַ</t>
+  </si>
+  <si>
+    <t>позволял</t>
+  </si>
+  <si>
+    <t>אָדָם</t>
+  </si>
+  <si>
+    <t>человеку</t>
+  </si>
+  <si>
+    <t>לְעָשְׁקָם</t>
+  </si>
+  <si>
+    <t>обижать их</t>
+  </si>
+  <si>
+    <t>וַיּוֹכַח</t>
+  </si>
+  <si>
+    <t>и наказал</t>
+  </si>
+  <si>
+    <t>עֲלֵיהֶם</t>
+  </si>
+  <si>
+    <t>за них</t>
+  </si>
+  <si>
+    <t>מְלָכִים</t>
+  </si>
+  <si>
+    <t>царей</t>
+  </si>
+  <si>
+    <t>טו</t>
+  </si>
+  <si>
+    <t>אַל</t>
+  </si>
+  <si>
+    <t>תִּגְּעוּ</t>
+  </si>
+  <si>
+    <t>причиняйте зло</t>
+  </si>
+  <si>
+    <t>בִמְשִׁיחָי</t>
+  </si>
+  <si>
+    <t>помазанникам моим</t>
+  </si>
+  <si>
+    <t>וּבִנְבִיאַי</t>
+  </si>
+  <si>
+    <t>и пророкам Моим</t>
+  </si>
+  <si>
+    <t>אַל־תָּרֵעוּ</t>
+  </si>
+  <si>
+    <t>не делайте зла</t>
+  </si>
+  <si>
+    <t>טז</t>
+  </si>
+  <si>
+    <t>וַיִּקְרָא</t>
+  </si>
+  <si>
+    <t>и призвал</t>
+  </si>
+  <si>
+    <t>רָעָב</t>
+  </si>
+  <si>
+    <t>голод</t>
+  </si>
+  <si>
+    <t>עַל־הָאָרֶץ</t>
+  </si>
+  <si>
+    <t>на землю</t>
+  </si>
+  <si>
+    <t>כָּל־מַטֵּה־לֶחֶם</t>
+  </si>
+  <si>
+    <t>всякий стебель хлебный</t>
+  </si>
+  <si>
+    <t>שָׁבַר</t>
+  </si>
+  <si>
+    <t>сломал</t>
+  </si>
+  <si>
+    <t>יז</t>
+  </si>
+  <si>
+    <t>שָׁלַח</t>
+  </si>
+  <si>
+    <t>послал</t>
+  </si>
+  <si>
+    <t>לִפְנֵיהֶם</t>
+  </si>
+  <si>
+    <t>пред ними</t>
+  </si>
+  <si>
+    <t>אִישׁ</t>
+  </si>
+  <si>
+    <t>мужа</t>
+  </si>
+  <si>
+    <t>לְעֶבֶד</t>
+  </si>
+  <si>
+    <t>в рабы</t>
+  </si>
+  <si>
+    <t>נִמְכַּר</t>
+  </si>
+  <si>
+    <t>продан</t>
+  </si>
+  <si>
+    <t>יוֹסֵף</t>
+  </si>
+  <si>
+    <t>Иосиф</t>
+  </si>
+  <si>
+    <t>יח</t>
+  </si>
+  <si>
+    <t>עִנּוּ</t>
+  </si>
+  <si>
+    <t>стеснили</t>
+  </si>
+  <si>
+    <t>בַכֶּבֶל</t>
+  </si>
+  <si>
+    <t>в колодах</t>
+  </si>
+  <si>
+    <t>רַגְלוֹ</t>
+  </si>
+  <si>
+    <t>ноги его</t>
+  </si>
+  <si>
+    <t>בַּרְזֶל</t>
+  </si>
+  <si>
+    <t>в железо</t>
+  </si>
+  <si>
+    <t>בָּאָה</t>
+  </si>
+  <si>
+    <t>вошла</t>
+  </si>
+  <si>
+    <t>נַפְשׁוֹ</t>
+  </si>
+  <si>
+    <t>душа его</t>
+  </si>
+  <si>
+    <t>יט</t>
+  </si>
+  <si>
+    <t>עַד־עֵת</t>
+  </si>
+  <si>
+    <t>до времени</t>
+  </si>
+  <si>
+    <t>בֹּא</t>
+  </si>
+  <si>
+    <t>исполнения</t>
+  </si>
+  <si>
+    <t>דְבָרוֹ</t>
+  </si>
+  <si>
+    <t>слова его</t>
+  </si>
+  <si>
+    <t>אִמְרַת־יְהוָה</t>
+  </si>
+  <si>
+    <t>слово Господне</t>
+  </si>
+  <si>
+    <t>צְרָפָתְהוּ</t>
+  </si>
+  <si>
+    <t>испытывало его</t>
+  </si>
+  <si>
+    <t>כ</t>
+  </si>
+  <si>
+    <t>מֶלֶךְ</t>
+  </si>
+  <si>
+    <t>царь</t>
+  </si>
+  <si>
+    <t>וַיַּתִּירֵהוּ</t>
+  </si>
+  <si>
+    <t>и освободил его</t>
+  </si>
+  <si>
+    <t>מֹשֵׁל</t>
+  </si>
+  <si>
+    <t>владыка</t>
+  </si>
+  <si>
+    <t>עַמִּים</t>
+  </si>
+  <si>
+    <t>народов</t>
+  </si>
+  <si>
+    <t>וַיְפַתְּחֵהוּ</t>
+  </si>
+  <si>
+    <t>и отпустил его</t>
+  </si>
+  <si>
+    <t>כ"א</t>
+  </si>
+  <si>
+    <t>שָׂמוֹ</t>
+  </si>
+  <si>
+    <t>поставил его</t>
+  </si>
+  <si>
+    <t>אֲדוֹן</t>
+  </si>
+  <si>
+    <t>господином</t>
+  </si>
+  <si>
+    <t>לְבֵיתוֹ</t>
+  </si>
+  <si>
+    <t>над домом своим</t>
+  </si>
+  <si>
+    <t>וּמֹשֵׁל</t>
+  </si>
+  <si>
+    <t>и управителем</t>
+  </si>
+  <si>
+    <t>בְּכָל־קִנְיָנוֹ</t>
+  </si>
+  <si>
+    <t>над всем имением своим</t>
+  </si>
+  <si>
+    <t>כ"ב</t>
+  </si>
+  <si>
+    <t>לֶאְסֹר</t>
+  </si>
+  <si>
+    <t>чтобы наставлять</t>
+  </si>
+  <si>
+    <t>שָׂרָיו</t>
+  </si>
+  <si>
+    <t>князей его</t>
+  </si>
+  <si>
+    <t>בְּנַפְשׁוֹ</t>
+  </si>
+  <si>
+    <t>по своей воле</t>
+  </si>
+  <si>
+    <t>וּזְקֵנָיו</t>
+  </si>
+  <si>
+    <t>и старейшин его</t>
+  </si>
+  <si>
+    <t>יְחַכֵּם</t>
+  </si>
+  <si>
+    <t>вразумлять</t>
+  </si>
+  <si>
+    <t>כ"ג</t>
+  </si>
+  <si>
+    <t>וַיָּבֹא</t>
+  </si>
+  <si>
+    <t>и пришел</t>
+  </si>
+  <si>
+    <t>יִשְׂרָאֵל</t>
+  </si>
+  <si>
+    <t>Израиль</t>
+  </si>
+  <si>
+    <t>מִצְרַיִם</t>
+  </si>
+  <si>
+    <t>в Египет</t>
+  </si>
+  <si>
+    <t>וְיַעֲקֹב</t>
+  </si>
+  <si>
+    <t>и Иаков</t>
+  </si>
+  <si>
+    <t>גָּר</t>
+  </si>
+  <si>
+    <t>поселился</t>
+  </si>
+  <si>
+    <t>בְּאֶרֶץ־חָם</t>
+  </si>
+  <si>
+    <t>в земле Хамовой</t>
+  </si>
+  <si>
+    <t>כ"ד</t>
+  </si>
+  <si>
+    <t>וַיּפֶר</t>
+  </si>
+  <si>
+    <t>и весьма размножил</t>
+  </si>
+  <si>
+    <t>אֶת־עַמּוֹ</t>
+  </si>
+  <si>
+    <t>народ свой</t>
+  </si>
+  <si>
+    <t>מְאֹד</t>
+  </si>
+  <si>
+    <t>и сделал его</t>
+  </si>
+  <si>
+    <t>וַיַּעַצְמֵהוּ</t>
+  </si>
+  <si>
+    <t>сильнее</t>
+  </si>
+  <si>
+    <t>מִצָּרָיו</t>
+  </si>
+  <si>
+    <t>врагов его</t>
+  </si>
+  <si>
+    <t>כ"ה</t>
+  </si>
+  <si>
+    <t>הָפַךְ</t>
+  </si>
+  <si>
+    <t>возбудил</t>
+  </si>
+  <si>
+    <t>לִבָּם</t>
+  </si>
+  <si>
+    <t>сердце их</t>
+  </si>
+  <si>
+    <t>לִשְׂנֹא</t>
+  </si>
+  <si>
+    <t>ненавидеть</t>
+  </si>
+  <si>
+    <t>עַמּוֹ</t>
+  </si>
+  <si>
+    <t>народ его</t>
+  </si>
+  <si>
+    <t>לְהִתְנַכֵּל</t>
+  </si>
+  <si>
+    <t>устроять коварства</t>
+  </si>
+  <si>
+    <t>בַּעֲבָדָיו</t>
+  </si>
+  <si>
+    <t>против рабов его</t>
+  </si>
+  <si>
+    <t>כ"ו</t>
+  </si>
+  <si>
+    <t>מֹשֶׁה</t>
+  </si>
+  <si>
+    <t>Моисея</t>
+  </si>
+  <si>
+    <t>раба своего</t>
+  </si>
+  <si>
+    <t>אַהֲרֹן</t>
+  </si>
+  <si>
+    <t>Аарона</t>
+  </si>
+  <si>
+    <t>которого</t>
+  </si>
+  <si>
+    <t>בָּחַר־בּוֹ</t>
+  </si>
+  <si>
+    <t>избрал</t>
+  </si>
+  <si>
+    <t>כ"ז</t>
+  </si>
+  <si>
+    <t>שָׂמוּ</t>
+  </si>
+  <si>
+    <t>они показали</t>
+  </si>
+  <si>
+    <t>בָם</t>
+  </si>
+  <si>
+    <t>между ними</t>
+  </si>
+  <si>
+    <t>דִּבְרֵי</t>
+  </si>
+  <si>
+    <t>слова</t>
+  </si>
+  <si>
+    <t>אֹתוֹתָיו</t>
   </si>
   <si>
     <t>знамения Его</t>
-  </si>
-  <si>
-    <t>וּמִשְׁפְּטֵי־פִיו</t>
-  </si>
-  <si>
-    <t>и суды уст Его</t>
-  </si>
-  <si>
-    <t>ו</t>
-  </si>
-  <si>
-    <t>זֶרַע</t>
-  </si>
-  <si>
-    <t>потомство</t>
-  </si>
-  <si>
-    <t>אַבְרָהָם</t>
-  </si>
-  <si>
-    <t>Авраама</t>
-  </si>
-  <si>
-    <t>עַבְדּוֹ</t>
-  </si>
-  <si>
-    <t>раба Его</t>
-  </si>
-  <si>
-    <t>בְּנֵי</t>
-  </si>
-  <si>
-    <t>сыны</t>
-  </si>
-  <si>
-    <t>יַעֲקֹב</t>
-  </si>
-  <si>
-    <t>Иакова</t>
-  </si>
-  <si>
-    <t>בְּחִירָיו</t>
-  </si>
-  <si>
-    <t>избранные Его</t>
-  </si>
-  <si>
-    <t>ז</t>
-  </si>
-  <si>
-    <t>הוּא</t>
-  </si>
-  <si>
-    <t>Он</t>
-  </si>
-  <si>
-    <t>Господь</t>
-  </si>
-  <si>
-    <t>אֱלֹהֵינוּ</t>
-  </si>
-  <si>
-    <t>Бог наш</t>
-  </si>
-  <si>
-    <t>בְּכָל־הָאָרֶץ</t>
-  </si>
-  <si>
-    <t>по всей земле</t>
-  </si>
-  <si>
-    <t>מִשְׁפָּטָיו</t>
-  </si>
-  <si>
-    <t>суды Его</t>
-  </si>
-  <si>
-    <t>ח</t>
-  </si>
-  <si>
-    <t>זָכַר</t>
-  </si>
-  <si>
-    <t>помнит</t>
-  </si>
-  <si>
-    <t>לְעֹולָם</t>
-  </si>
-  <si>
-    <t>вечно</t>
-  </si>
-  <si>
-    <t>בְּרִיתוֹ</t>
-  </si>
-  <si>
-    <t>завет Свой</t>
-  </si>
-  <si>
-    <t>דָּבָר</t>
-  </si>
-  <si>
-    <t>слово</t>
-  </si>
-  <si>
-    <t>צִוָּה</t>
-  </si>
-  <si>
-    <t>которое заповедал</t>
-  </si>
-  <si>
-    <t>לְאֶלֶף</t>
-  </si>
-  <si>
-    <t>в тысячу</t>
-  </si>
-  <si>
-    <t>דּוֹר</t>
-  </si>
-  <si>
-    <t>родов</t>
-  </si>
-  <si>
-    <t>ט</t>
-  </si>
-  <si>
-    <t>אֲשֶׁר</t>
-  </si>
-  <si>
-    <t>который</t>
-  </si>
-  <si>
-    <t>כָּרַת</t>
-  </si>
-  <si>
-    <t>завещал</t>
-  </si>
-  <si>
-    <t>אֶת־אַבְרָהָם</t>
-  </si>
-  <si>
-    <t>Аврааму</t>
-  </si>
-  <si>
-    <t>וּשְׁבוּעָתוֹ</t>
-  </si>
-  <si>
-    <t>и клятву Свою</t>
-  </si>
-  <si>
-    <t>לְיִשְׂחָק</t>
-  </si>
-  <si>
-    <t>Исааку</t>
-  </si>
-  <si>
-    <t>י</t>
-  </si>
-  <si>
-    <t>וַיַּעֲמִידֶהָ</t>
-  </si>
-  <si>
-    <t>поставил</t>
-  </si>
-  <si>
-    <t>לְיַעֲקֹב</t>
-  </si>
-  <si>
-    <t>Иакову</t>
-  </si>
-  <si>
-    <t>לְחֹק</t>
-  </si>
-  <si>
-    <t>в закон</t>
-  </si>
-  <si>
-    <t>לְיִשְׂרָאֵל</t>
-  </si>
-  <si>
-    <t>Израилю</t>
-  </si>
-  <si>
-    <t>בְּרִית</t>
-  </si>
-  <si>
-    <t>завет</t>
-  </si>
-  <si>
-    <t>עוֹלָם</t>
-  </si>
-  <si>
-    <t>вечный</t>
-  </si>
-  <si>
-    <t>יא</t>
-  </si>
-  <si>
-    <t>לֵאמֹר</t>
-  </si>
-  <si>
-    <t>говоря</t>
-  </si>
-  <si>
-    <t>לְךָ</t>
-  </si>
-  <si>
-    <t>тебе</t>
-  </si>
-  <si>
-    <t>אֶתֵּן</t>
-  </si>
-  <si>
-    <t>дам</t>
-  </si>
-  <si>
-    <t>אֶת־אֶרֶץ</t>
-  </si>
-  <si>
-    <t>землю</t>
-  </si>
-  <si>
-    <t>כְּנָעַן</t>
-  </si>
-  <si>
-    <t>Ханаанскую</t>
-  </si>
-  <si>
-    <t>חֶבֶל</t>
-  </si>
-  <si>
-    <t>в удел</t>
-  </si>
-  <si>
-    <t>נַחֲלַתְכֶם</t>
-  </si>
-  <si>
-    <t>наследие ваше</t>
-  </si>
-  <si>
-    <t>יב</t>
-  </si>
-  <si>
-    <t>בִּהְיוֹתָם</t>
-  </si>
-  <si>
-    <t>когда</t>
-  </si>
-  <si>
-    <t>מְתֵי</t>
-  </si>
-  <si>
-    <t>их было</t>
-  </si>
-  <si>
-    <t>מִסְפָּר</t>
-  </si>
-  <si>
-    <t>немного</t>
-  </si>
-  <si>
-    <t>כִּמְעַט</t>
-  </si>
-  <si>
-    <t>очень</t>
-  </si>
-  <si>
-    <t>וְגָרִים</t>
-  </si>
-  <si>
-    <t>и пришельцы</t>
-  </si>
-  <si>
-    <t>בָּה</t>
-  </si>
-  <si>
-    <t>в ней</t>
-  </si>
-  <si>
-    <t>יג</t>
-  </si>
-  <si>
-    <t>וַיְהִי</t>
-  </si>
-  <si>
-    <t>и переходили</t>
-  </si>
-  <si>
-    <t>בְּנָדְתָם</t>
-  </si>
-  <si>
-    <t>от народа</t>
-  </si>
-  <si>
-    <t>מִגּוֹי</t>
-  </si>
-  <si>
-    <t>к народу</t>
-  </si>
-  <si>
-    <t>אֶל־גּוֹי</t>
-  </si>
-  <si>
-    <t>от царства</t>
-  </si>
-  <si>
-    <t>מִמַּמְלָכָה</t>
-  </si>
-  <si>
-    <t>к иному</t>
-  </si>
-  <si>
-    <t>אֶל־עַם אַחֵר</t>
-  </si>
-  <si>
-    <t>народу</t>
-  </si>
-  <si>
-    <t>יד</t>
-  </si>
-  <si>
-    <t>לֹא</t>
-  </si>
-  <si>
-    <t>никому</t>
-  </si>
-  <si>
-    <t>הִנִּיחַ</t>
-  </si>
-  <si>
-    <t>не позволил</t>
-  </si>
-  <si>
-    <t>אָדָם</t>
-  </si>
-  <si>
-    <t>их</t>
-  </si>
-  <si>
-    <t>לְעָשְׁקָם</t>
-  </si>
-  <si>
-    <t xml:space="preserve">обижать </t>
-  </si>
-  <si>
-    <t>וַיּוֹכַח</t>
-  </si>
-  <si>
-    <t>и наказал</t>
-  </si>
-  <si>
-    <t>עֲלֵיהֶם</t>
-  </si>
-  <si>
-    <t>за них</t>
-  </si>
-  <si>
-    <t>מְלָכִים</t>
-  </si>
-  <si>
-    <t>царей</t>
-  </si>
-  <si>
-    <t>טו</t>
-  </si>
-  <si>
-    <t>אַל־תִּגְּעוּ</t>
-  </si>
-  <si>
-    <t>не прикасайтесь</t>
-  </si>
-  <si>
-    <t>בִּמְשִׁיחָי</t>
-  </si>
-  <si>
-    <t>к помазанным Моим</t>
-  </si>
-  <si>
-    <t>וּבִנְבִיאַי</t>
-  </si>
-  <si>
-    <t>и пророкам Моим</t>
-  </si>
-  <si>
-    <t>אַל־תָּרֵעוּ</t>
-  </si>
-  <si>
-    <t>не делайте зла</t>
-  </si>
-  <si>
-    <t>טז</t>
-  </si>
-  <si>
-    <t>וַיִּקְרָא</t>
-  </si>
-  <si>
-    <t>и призвал</t>
-  </si>
-  <si>
-    <t>רָעָב</t>
-  </si>
-  <si>
-    <t>голод</t>
-  </si>
-  <si>
-    <t>עַל־הָאָרֶץ</t>
-  </si>
-  <si>
-    <t>на землю</t>
-  </si>
-  <si>
-    <t>כָּל־מַטֵּה־לֶחֶם</t>
-  </si>
-  <si>
-    <t>всякий стебель хлебный</t>
-  </si>
-  <si>
-    <t>שָׁבָר</t>
-  </si>
-  <si>
-    <t>истребил</t>
-  </si>
-  <si>
-    <t>יז</t>
-  </si>
-  <si>
-    <t>שָׁלַח</t>
-  </si>
-  <si>
-    <t>послал</t>
-  </si>
-  <si>
-    <t>לִפְנֵיהֶם</t>
-  </si>
-  <si>
-    <t>пред ними</t>
-  </si>
-  <si>
-    <t>אִישׁ</t>
-  </si>
-  <si>
-    <t>мужа</t>
-  </si>
-  <si>
-    <t>לְעֶבֶד</t>
-  </si>
-  <si>
-    <t>в рабы</t>
-  </si>
-  <si>
-    <t>נִמְכַּר</t>
-  </si>
-  <si>
-    <t>продан</t>
-  </si>
-  <si>
-    <t>יוֹסֵף</t>
-  </si>
-  <si>
-    <t>Иосиф</t>
-  </si>
-  <si>
-    <t>יח</t>
-  </si>
-  <si>
-    <t>עִנּוּ</t>
-  </si>
-  <si>
-    <t>стеснили</t>
-  </si>
-  <si>
-    <t>בַכֶּבֶל</t>
-  </si>
-  <si>
-    <t>в колодах</t>
-  </si>
-  <si>
-    <t>רַגְלוֹ</t>
-  </si>
-  <si>
-    <t>ноги его</t>
-  </si>
-  <si>
-    <t>בַּרְזֶל</t>
-  </si>
-  <si>
-    <t>в железо</t>
-  </si>
-  <si>
-    <t>בָּאָה</t>
-  </si>
-  <si>
-    <t>вошла</t>
-  </si>
-  <si>
-    <t>נַפְשׁוֹ</t>
-  </si>
-  <si>
-    <t>душа его</t>
-  </si>
-  <si>
-    <t>יט</t>
-  </si>
-  <si>
-    <t>עַד־עֵת</t>
-  </si>
-  <si>
-    <t>до времени</t>
-  </si>
-  <si>
-    <t>בֹּא</t>
-  </si>
-  <si>
-    <t>исполнения</t>
-  </si>
-  <si>
-    <t>דְבָרוֹ</t>
-  </si>
-  <si>
-    <t>слова его</t>
-  </si>
-  <si>
-    <t>אִמְרַת־יְהוָה</t>
-  </si>
-  <si>
-    <t>слово Господне</t>
-  </si>
-  <si>
-    <t>צְרָפָתְהוּ</t>
-  </si>
-  <si>
-    <t>испытывало его</t>
-  </si>
-  <si>
-    <t>כ</t>
-  </si>
-  <si>
-    <t>מֶלֶךְ</t>
-  </si>
-  <si>
-    <t>царь</t>
-  </si>
-  <si>
-    <t>וַיַּתִּירֵהוּ</t>
-  </si>
-  <si>
-    <t>и освободил его</t>
-  </si>
-  <si>
-    <t>מֹשֵׁל</t>
-  </si>
-  <si>
-    <t>владыка</t>
-  </si>
-  <si>
-    <t>עַמִּים</t>
-  </si>
-  <si>
-    <t>народов</t>
-  </si>
-  <si>
-    <t>וַיְפַתְּחֵהוּ</t>
-  </si>
-  <si>
-    <t>и отпустил его</t>
-  </si>
-  <si>
-    <t>כ"א</t>
-  </si>
-  <si>
-    <t>שָׂמוֹ</t>
-  </si>
-  <si>
-    <t>поставил его</t>
-  </si>
-  <si>
-    <t>אֲדוֹן</t>
-  </si>
-  <si>
-    <t>господином</t>
-  </si>
-  <si>
-    <t>לְבֵיתוֹ</t>
-  </si>
-  <si>
-    <t>над домом своим</t>
-  </si>
-  <si>
-    <t>וּמֹשֵׁל</t>
-  </si>
-  <si>
-    <t>и управителем</t>
-  </si>
-  <si>
-    <t>בְּכָל־קִנְיָנוֹ</t>
-  </si>
-  <si>
-    <t>над всем имением своим</t>
-  </si>
-  <si>
-    <t>כ"ב</t>
-  </si>
-  <si>
-    <t>לֶאְסֹר</t>
-  </si>
-  <si>
-    <t>чтобы наставлять</t>
-  </si>
-  <si>
-    <t>שָׂרָיו</t>
-  </si>
-  <si>
-    <t>князей его</t>
-  </si>
-  <si>
-    <t>בְּנַפְשׁוֹ</t>
-  </si>
-  <si>
-    <t>по своей воле</t>
-  </si>
-  <si>
-    <t>וּזְקֵנָיו</t>
-  </si>
-  <si>
-    <t>и старейшин его</t>
-  </si>
-  <si>
-    <t>יְחַכֵּם</t>
-  </si>
-  <si>
-    <t>вразумлять</t>
-  </si>
-  <si>
-    <t>כ"ג</t>
-  </si>
-  <si>
-    <t>וַיָּבֹא</t>
-  </si>
-  <si>
-    <t>и пришел</t>
-  </si>
-  <si>
-    <t>יִשְׂרָאֵל</t>
-  </si>
-  <si>
-    <t>Израиль</t>
-  </si>
-  <si>
-    <t>מִצְרַיִם</t>
-  </si>
-  <si>
-    <t>в Египет</t>
-  </si>
-  <si>
-    <t>וְיַעֲקֹב</t>
-  </si>
-  <si>
-    <t>и Иаков</t>
-  </si>
-  <si>
-    <t>גָּר</t>
-  </si>
-  <si>
-    <t>поселился</t>
-  </si>
-  <si>
-    <t>בְּאֶרֶץ־חָם</t>
-  </si>
-  <si>
-    <t>в земле Хамовой</t>
-  </si>
-  <si>
-    <t>כ"ד</t>
-  </si>
-  <si>
-    <t>וַיּפֶר</t>
-  </si>
-  <si>
-    <t>и весьма размножил</t>
-  </si>
-  <si>
-    <t>אֶת־עַמּוֹ</t>
-  </si>
-  <si>
-    <t>народ свой</t>
-  </si>
-  <si>
-    <t>מְאֹד</t>
-  </si>
-  <si>
-    <t>и сделал его</t>
-  </si>
-  <si>
-    <t>וַיַּעַצְמֵהוּ</t>
-  </si>
-  <si>
-    <t>сильнее</t>
-  </si>
-  <si>
-    <t>מִצָּרָיו</t>
-  </si>
-  <si>
-    <t>врагов его</t>
-  </si>
-  <si>
-    <t>כ"ה</t>
-  </si>
-  <si>
-    <t>הָפַךְ</t>
-  </si>
-  <si>
-    <t>возбудил</t>
-  </si>
-  <si>
-    <t>לִבָּם</t>
-  </si>
-  <si>
-    <t>сердце их</t>
-  </si>
-  <si>
-    <t>לִשְׂנֹא</t>
-  </si>
-  <si>
-    <t>ненавидеть</t>
-  </si>
-  <si>
-    <t>עַמּוֹ</t>
-  </si>
-  <si>
-    <t>народ его</t>
-  </si>
-  <si>
-    <t>לְהִתְנַכֵּל</t>
-  </si>
-  <si>
-    <t>устроять коварства</t>
-  </si>
-  <si>
-    <t>בַּעֲבָדָיו</t>
-  </si>
-  <si>
-    <t>против рабов его</t>
-  </si>
-  <si>
-    <t>כ"ו</t>
-  </si>
-  <si>
-    <t>מֹשֶׁה</t>
-  </si>
-  <si>
-    <t>Моисея</t>
-  </si>
-  <si>
-    <t>раба своего</t>
-  </si>
-  <si>
-    <t>אַהֲרֹן</t>
-  </si>
-  <si>
-    <t>Аарона</t>
-  </si>
-  <si>
-    <t>которого</t>
-  </si>
-  <si>
-    <t>בָּחַר־בּוֹ</t>
-  </si>
-  <si>
-    <t>избрал</t>
-  </si>
-  <si>
-    <t>כ"ז</t>
-  </si>
-  <si>
-    <t>שָׂמוּ</t>
-  </si>
-  <si>
-    <t>они показали</t>
-  </si>
-  <si>
-    <t>בָם</t>
-  </si>
-  <si>
-    <t>между ними</t>
-  </si>
-  <si>
-    <t>דִּבְרֵי</t>
-  </si>
-  <si>
-    <t>слова</t>
-  </si>
-  <si>
-    <t>אֹתוֹתָיו</t>
   </si>
   <si>
     <t>וּמוֹפְתִים</t>
@@ -1126,10 +1147,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color rgb="FF0D0D0D"/>
       <name val="Calibri"/>
     </font>
@@ -1154,7 +1177,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1176,6 +1199,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1650,10 +1676,10 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2"/>
@@ -1714,10 +1740,10 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2"/>
@@ -1746,10 +1772,10 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="2"/>
@@ -1778,11 +1804,11 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>23</v>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1810,11 +1836,11 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>25</v>
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1842,11 +1868,11 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3.0</v>
+      <c r="A15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1874,11 +1900,11 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>28</v>
+      <c r="A16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1906,11 +1932,11 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>30</v>
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3.0</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1939,10 +1965,10 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1971,10 +1997,10 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2003,10 +2029,10 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2035,10 +2061,10 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2067,10 +2093,10 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2098,11 +2124,11 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="7">
-        <v>4.0</v>
+      <c r="A23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2131,10 +2157,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2162,11 +2188,11 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>6</v>
+      <c r="A25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4.0</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2195,10 +2221,10 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2227,10 +2253,10 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2258,11 +2284,11 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>48</v>
+      <c r="A28" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2291,10 +2317,10 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2322,11 +2348,11 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="7">
-        <v>5.0</v>
+      <c r="A30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2355,10 +2381,10 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2386,11 +2412,11 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>55</v>
+      <c r="A32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="7">
+        <v>5.0</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2419,10 +2445,10 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2450,11 +2476,11 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>59</v>
+      <c r="A34" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2482,11 +2508,11 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>61</v>
+      <c r="A35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2515,10 +2541,10 @@
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="7">
-        <v>6.0</v>
+        <v>59</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2546,11 +2572,11 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>64</v>
+      <c r="A37" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2578,11 +2604,11 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>66</v>
+      <c r="A38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2610,11 +2636,11 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>68</v>
+      <c r="A39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2642,11 +2668,11 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>70</v>
+      <c r="A40" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="7">
+        <v>6.0</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2675,10 +2701,10 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2707,10 +2733,10 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2738,11 +2764,11 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="7">
-        <v>7.0</v>
+      <c r="A43" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2771,10 +2797,10 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2803,10 +2829,10 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2835,10 +2861,10 @@
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2866,11 +2892,11 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>82</v>
+      <c r="A47" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="7">
+        <v>7.0</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2899,10 +2925,10 @@
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2930,11 +2956,11 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49" s="7">
-        <v>8.0</v>
+      <c r="A49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2963,10 +2989,10 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2995,10 +3021,10 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -3026,11 +3052,11 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>91</v>
+      <c r="A52" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -3058,11 +3084,11 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>93</v>
+      <c r="A53" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="7">
+        <v>8.0</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -3091,10 +3117,10 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -3123,10 +3149,10 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -3155,10 +3181,10 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -3187,10 +3213,10 @@
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" s="7">
-        <v>9.0</v>
+        <v>97</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -3218,11 +3244,11 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>102</v>
+      <c r="A58" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -3251,10 +3277,10 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -3283,10 +3309,10 @@
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -3314,11 +3340,11 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>108</v>
+      <c r="A61" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="7">
+        <v>9.0</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -3347,10 +3373,10 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -3378,11 +3404,11 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" s="7">
-        <v>10.0</v>
+      <c r="A63" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3411,10 +3437,10 @@
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -3443,10 +3469,10 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3475,10 +3501,10 @@
     </row>
     <row r="66">
       <c r="A66" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3506,11 +3532,11 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67">
-      <c r="A67" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>119</v>
+      <c r="A67" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="7">
+        <v>10.0</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3539,10 +3565,10 @@
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -3571,10 +3597,10 @@
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3602,11 +3628,11 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B70" s="7">
-        <v>11.0</v>
+      <c r="A70" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3635,10 +3661,10 @@
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3667,10 +3693,10 @@
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3699,10 +3725,10 @@
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3730,11 +3756,11 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>132</v>
+      <c r="A74" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="7">
+        <v>11.0</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3763,10 +3789,10 @@
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -3795,10 +3821,10 @@
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3827,10 +3853,10 @@
     </row>
     <row r="77">
       <c r="A77" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3858,11 +3884,11 @@
       <c r="Z77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B78" s="7">
-        <v>12.0</v>
+      <c r="A78" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -3891,10 +3917,10 @@
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3922,11 +3948,11 @@
       <c r="Z79" s="2"/>
     </row>
     <row r="80">
-      <c r="A80" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>143</v>
+      <c r="A80" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -3954,11 +3980,11 @@
       <c r="Z80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>145</v>
+      <c r="A81" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3986,11 +4012,11 @@
       <c r="Z81" s="2"/>
     </row>
     <row r="82">
-      <c r="A82" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>147</v>
+      <c r="A82" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" s="7">
+        <v>12.0</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -4019,10 +4045,10 @@
     </row>
     <row r="83">
       <c r="A83" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -4051,10 +4077,10 @@
     </row>
     <row r="84">
       <c r="A84" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -4082,11 +4108,11 @@
       <c r="Z84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B85" s="7">
-        <v>13.0</v>
+      <c r="A85" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -4115,10 +4141,10 @@
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -4147,10 +4173,10 @@
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -4179,10 +4205,10 @@
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -4210,11 +4236,11 @@
       <c r="Z88" s="2"/>
     </row>
     <row r="89">
-      <c r="A89" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>160</v>
+      <c r="A89" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" s="7">
+        <v>13.0</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -4243,10 +4269,10 @@
     </row>
     <row r="90">
       <c r="A90" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -4275,10 +4301,10 @@
     </row>
     <row r="91">
       <c r="A91" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -4306,11 +4332,11 @@
       <c r="Z91" s="2"/>
     </row>
     <row r="92">
-      <c r="A92" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B92" s="7">
-        <v>14.0</v>
+      <c r="A92" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -4339,10 +4365,10 @@
     </row>
     <row r="93">
       <c r="A93" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -4371,10 +4397,10 @@
     </row>
     <row r="94">
       <c r="A94" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -4403,10 +4429,10 @@
     </row>
     <row r="95">
       <c r="A95" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -4434,11 +4460,11 @@
       <c r="Z95" s="2"/>
     </row>
     <row r="96">
-      <c r="A96" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>173</v>
+      <c r="A96" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96" s="7">
+        <v>14.0</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -4466,11 +4492,11 @@
       <c r="Z96" s="2"/>
     </row>
     <row r="97">
-      <c r="A97" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>175</v>
+      <c r="A97" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4498,11 +4524,11 @@
       <c r="Z97" s="2"/>
     </row>
     <row r="98">
-      <c r="A98" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>177</v>
+      <c r="A98" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -4530,11 +4556,11 @@
       <c r="Z98" s="2"/>
     </row>
     <row r="99">
-      <c r="A99" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>179</v>
+      <c r="A99" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -4563,10 +4589,10 @@
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B100" s="7">
-        <v>15.0</v>
+        <v>177</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -4595,10 +4621,10 @@
     </row>
     <row r="101">
       <c r="A101" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -4627,10 +4653,10 @@
     </row>
     <row r="102">
       <c r="A102" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -4659,10 +4685,10 @@
     </row>
     <row r="103">
       <c r="A103" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -4690,11 +4716,11 @@
       <c r="Z103" s="2"/>
     </row>
     <row r="104">
-      <c r="A104" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>188</v>
+      <c r="A104" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B104" s="7">
+        <v>15.0</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -4723,10 +4749,10 @@
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B105" s="7">
-        <v>16.0</v>
+        <v>186</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -4754,11 +4780,11 @@
       <c r="Z105" s="2"/>
     </row>
     <row r="106">
-      <c r="A106" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>191</v>
+      <c r="A106" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -4786,11 +4812,11 @@
       <c r="Z106" s="2"/>
     </row>
     <row r="107">
-      <c r="A107" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>193</v>
+      <c r="A107" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -4819,10 +4845,10 @@
     </row>
     <row r="108">
       <c r="A108" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -4851,10 +4877,10 @@
     </row>
     <row r="109">
       <c r="A109" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -4882,11 +4908,11 @@
       <c r="Z109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>199</v>
+      <c r="A110" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B110" s="7">
+        <v>16.0</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -4914,11 +4940,11 @@
       <c r="Z110" s="2"/>
     </row>
     <row r="111">
-      <c r="A111" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B111" s="7">
-        <v>17.0</v>
+      <c r="A111" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -4947,10 +4973,10 @@
     </row>
     <row r="112">
       <c r="A112" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -4979,10 +5005,10 @@
     </row>
     <row r="113">
       <c r="A113" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -5011,10 +5037,10 @@
     </row>
     <row r="114">
       <c r="A114" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -5042,11 +5068,11 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115">
-      <c r="A115" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>208</v>
+      <c r="A115" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -5074,11 +5100,11 @@
       <c r="Z115" s="2"/>
     </row>
     <row r="116">
-      <c r="A116" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>210</v>
+      <c r="A116" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B116" s="7">
+        <v>17.0</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -5107,10 +5133,10 @@
     </row>
     <row r="117">
       <c r="A117" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -5138,11 +5164,11 @@
       <c r="Z117" s="2"/>
     </row>
     <row r="118">
-      <c r="A118" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B118" s="7">
-        <v>18.0</v>
+      <c r="A118" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -5171,10 +5197,10 @@
     </row>
     <row r="119">
       <c r="A119" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -5203,10 +5229,10 @@
     </row>
     <row r="120">
       <c r="A120" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -5235,10 +5261,10 @@
     </row>
     <row r="121">
       <c r="A121" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -5267,10 +5293,10 @@
     </row>
     <row r="122">
       <c r="A122" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -5298,11 +5324,11 @@
       <c r="Z122" s="2"/>
     </row>
     <row r="123">
-      <c r="A123" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>223</v>
+      <c r="A123" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B123" s="7">
+        <v>18.0</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -5331,10 +5357,10 @@
     </row>
     <row r="124">
       <c r="A124" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -5362,11 +5388,11 @@
       <c r="Z124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B125" s="7">
-        <v>19.0</v>
+      <c r="A125" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -5395,10 +5421,10 @@
     </row>
     <row r="126">
       <c r="A126" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -5427,10 +5453,10 @@
     </row>
     <row r="127">
       <c r="A127" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -5459,10 +5485,10 @@
     </row>
     <row r="128">
       <c r="A128" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -5491,10 +5517,10 @@
     </row>
     <row r="129">
       <c r="A129" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -5522,11 +5548,11 @@
       <c r="Z129" s="2"/>
     </row>
     <row r="130">
-      <c r="A130" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>236</v>
+      <c r="A130" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B130" s="7">
+        <v>19.0</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -5554,11 +5580,11 @@
       <c r="Z130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B131" s="7">
-        <v>20.0</v>
+      <c r="A131" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -5587,10 +5613,10 @@
     </row>
     <row r="132">
       <c r="A132" s="5" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -5619,10 +5645,10 @@
     </row>
     <row r="133">
       <c r="A133" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -5651,10 +5677,10 @@
     </row>
     <row r="134">
       <c r="A134" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -5683,10 +5709,10 @@
     </row>
     <row r="135">
       <c r="A135" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -5714,11 +5740,11 @@
       <c r="Z135" s="2"/>
     </row>
     <row r="136">
-      <c r="A136" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>245</v>
+      <c r="A136" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B136" s="7">
+        <v>20.0</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -5747,10 +5773,10 @@
     </row>
     <row r="137">
       <c r="A137" s="5" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -5778,11 +5804,11 @@
       <c r="Z137" s="2"/>
     </row>
     <row r="138">
-      <c r="A138" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="B138" s="7">
-        <v>21.0</v>
+      <c r="A138" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -5811,10 +5837,10 @@
     </row>
     <row r="139">
       <c r="A139" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -5843,10 +5869,10 @@
     </row>
     <row r="140">
       <c r="A140" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -5875,10 +5901,10 @@
     </row>
     <row r="141">
       <c r="A141" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -5907,10 +5933,10 @@
     </row>
     <row r="142">
       <c r="A142" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -5938,11 +5964,11 @@
       <c r="Z142" s="2"/>
     </row>
     <row r="143">
-      <c r="A143" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>258</v>
+      <c r="A143" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B143" s="7">
+        <v>21.0</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -5970,11 +5996,11 @@
       <c r="Z143" s="2"/>
     </row>
     <row r="144">
-      <c r="A144" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B144" s="7">
-        <v>22.0</v>
+      <c r="A144" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -6003,10 +6029,10 @@
     </row>
     <row r="145">
       <c r="A145" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -6035,10 +6061,10 @@
     </row>
     <row r="146">
       <c r="A146" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -6067,10 +6093,10 @@
     </row>
     <row r="147">
       <c r="A147" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -6099,10 +6125,10 @@
     </row>
     <row r="148">
       <c r="A148" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -6130,11 +6156,11 @@
       <c r="Z148" s="2"/>
     </row>
     <row r="149">
-      <c r="A149" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>269</v>
+      <c r="A149" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B149" s="7">
+        <v>22.0</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -6162,11 +6188,11 @@
       <c r="Z149" s="2"/>
     </row>
     <row r="150">
-      <c r="A150" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B150" s="7">
-        <v>23.0</v>
+      <c r="A150" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -6195,10 +6221,10 @@
     </row>
     <row r="151">
       <c r="A151" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -6227,10 +6253,10 @@
     </row>
     <row r="152">
       <c r="A152" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -6259,10 +6285,10 @@
     </row>
     <row r="153">
       <c r="A153" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -6291,10 +6317,10 @@
     </row>
     <row r="154">
       <c r="A154" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -6322,11 +6348,11 @@
       <c r="Z154" s="2"/>
     </row>
     <row r="155">
-      <c r="A155" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>280</v>
+      <c r="A155" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B155" s="7">
+        <v>23.0</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -6355,10 +6381,10 @@
     </row>
     <row r="156">
       <c r="A156" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -6386,11 +6412,11 @@
       <c r="Z156" s="2"/>
     </row>
     <row r="157">
-      <c r="A157" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B157" s="7">
-        <v>24.0</v>
+      <c r="A157" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -6419,10 +6445,10 @@
     </row>
     <row r="158">
       <c r="A158" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -6451,10 +6477,10 @@
     </row>
     <row r="159">
       <c r="A159" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -6483,10 +6509,10 @@
     </row>
     <row r="160">
       <c r="A160" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -6515,10 +6541,10 @@
     </row>
     <row r="161">
       <c r="A161" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -6546,11 +6572,11 @@
       <c r="Z161" s="2"/>
     </row>
     <row r="162">
-      <c r="A162" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>293</v>
+      <c r="A162" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B162" s="7">
+        <v>24.0</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -6578,11 +6604,11 @@
       <c r="Z162" s="2"/>
     </row>
     <row r="163">
-      <c r="A163" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B163" s="7">
-        <v>25.0</v>
+      <c r="A163" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -6611,10 +6637,10 @@
     </row>
     <row r="164">
       <c r="A164" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -6643,10 +6669,10 @@
     </row>
     <row r="165">
       <c r="A165" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -6675,10 +6701,10 @@
     </row>
     <row r="166">
       <c r="A166" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -6707,10 +6733,10 @@
     </row>
     <row r="167">
       <c r="A167" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -6738,11 +6764,11 @@
       <c r="Z167" s="2"/>
     </row>
     <row r="168">
-      <c r="A168" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>304</v>
+      <c r="A168" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B168" s="7">
+        <v>25.0</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -6771,10 +6797,10 @@
     </row>
     <row r="169">
       <c r="A169" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -6802,11 +6828,11 @@
       <c r="Z169" s="2"/>
     </row>
     <row r="170">
-      <c r="A170" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B170" s="7">
-        <v>26.0</v>
+      <c r="A170" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -6835,10 +6861,10 @@
     </row>
     <row r="171">
       <c r="A171" s="5" t="s">
-        <v>201</v>
+        <v>305</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>202</v>
+        <v>306</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -6867,10 +6893,10 @@
     </row>
     <row r="172">
       <c r="A172" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>309</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -6899,7 +6925,7 @@
     </row>
     <row r="173">
       <c r="A173" s="5" t="s">
-        <v>67</v>
+        <v>309</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>310</v>
@@ -6962,11 +6988,11 @@
       <c r="Z174" s="2"/>
     </row>
     <row r="175">
-      <c r="A175" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B175" s="6" t="s">
+      <c r="A175" s="7" t="s">
         <v>313</v>
+      </c>
+      <c r="B175" s="7">
+        <v>26.0</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -6995,10 +7021,10 @@
     </row>
     <row r="176">
       <c r="A176" s="5" t="s">
-        <v>314</v>
+        <v>207</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>315</v>
+        <v>208</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -7026,11 +7052,11 @@
       <c r="Z176" s="2"/>
     </row>
     <row r="177">
-      <c r="A177" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="B177" s="7">
-        <v>27.0</v>
+      <c r="A177" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>315</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -7059,10 +7085,10 @@
     </row>
     <row r="178">
       <c r="A178" s="5" t="s">
-        <v>317</v>
+        <v>72</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -7091,10 +7117,10 @@
     </row>
     <row r="179">
       <c r="A179" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -7123,10 +7149,10 @@
     </row>
     <row r="180">
       <c r="A180" s="5" t="s">
-        <v>321</v>
+        <v>106</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -7155,10 +7181,10 @@
     </row>
     <row r="181">
       <c r="A181" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>59</v>
+        <v>321</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -7186,11 +7212,11 @@
       <c r="Z181" s="2"/>
     </row>
     <row r="182">
-      <c r="A182" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>325</v>
+      <c r="A182" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B182" s="7">
+        <v>27.0</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -7219,10 +7245,10 @@
     </row>
     <row r="183">
       <c r="A183" s="5" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -7250,11 +7276,11 @@
       <c r="Z183" s="2"/>
     </row>
     <row r="184">
-      <c r="A184" s="7" t="s">
+      <c r="A184" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B184" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="B184" s="7">
-        <v>28.0</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -7283,10 +7309,10 @@
     </row>
     <row r="185">
       <c r="A185" s="5" t="s">
-        <v>201</v>
+        <v>327</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -7315,10 +7341,10 @@
     </row>
     <row r="186">
       <c r="A186" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -7347,10 +7373,10 @@
     </row>
     <row r="187">
       <c r="A187" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -7379,10 +7405,10 @@
     </row>
     <row r="188">
       <c r="A188" s="5" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -7410,11 +7436,11 @@
       <c r="Z188" s="2"/>
     </row>
     <row r="189">
-      <c r="A189" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>335</v>
+      <c r="A189" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B189" s="7">
+        <v>28.0</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -7442,11 +7468,11 @@
       <c r="Z189" s="2"/>
     </row>
     <row r="190">
-      <c r="A190" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B190" s="7">
-        <v>29.0</v>
+      <c r="A190" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>334</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -7475,10 +7501,10 @@
     </row>
     <row r="191">
       <c r="A191" s="5" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -7507,10 +7533,10 @@
     </row>
     <row r="192">
       <c r="A192" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B192" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -7539,10 +7565,10 @@
     </row>
     <row r="193">
       <c r="A193" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B193" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>341</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -7571,10 +7597,10 @@
     </row>
     <row r="194">
       <c r="A194" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B194" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>343</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -7602,11 +7628,11 @@
       <c r="Z194" s="2"/>
     </row>
     <row r="195">
-      <c r="A195" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>345</v>
+      <c r="A195" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B195" s="7">
+        <v>29.0</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -7634,11 +7660,11 @@
       <c r="Z195" s="2"/>
     </row>
     <row r="196">
-      <c r="A196" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="B196" s="7">
-        <v>30.0</v>
+      <c r="A196" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>344</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -7667,10 +7693,10 @@
     </row>
     <row r="197">
       <c r="A197" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -7699,10 +7725,10 @@
     </row>
     <row r="198">
       <c r="A198" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -7731,10 +7757,10 @@
     </row>
     <row r="199">
       <c r="A199" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -7763,10 +7789,10 @@
     </row>
     <row r="200">
       <c r="A200" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -7794,11 +7820,11 @@
       <c r="Z200" s="2"/>
     </row>
     <row r="201">
-      <c r="A201" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>356</v>
+      <c r="A201" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B201" s="7">
+        <v>30.0</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -7826,11 +7852,11 @@
       <c r="Z201" s="2"/>
     </row>
     <row r="202">
-      <c r="A202" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="B202" s="7">
-        <v>31.0</v>
+      <c r="A202" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>355</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -7859,10 +7885,10 @@
     </row>
     <row r="203">
       <c r="A203" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -7891,10 +7917,10 @@
     </row>
     <row r="204">
       <c r="A204" s="5" t="s">
-        <v>271</v>
+        <v>358</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -7923,10 +7949,10 @@
     </row>
     <row r="205">
       <c r="A205" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B205" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -7955,10 +7981,10 @@
     </row>
     <row r="206">
       <c r="A206" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B206" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="B206" s="6" t="s">
-        <v>364</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -7986,11 +8012,11 @@
       <c r="Z206" s="2"/>
     </row>
     <row r="207">
-      <c r="A207" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>366</v>
+      <c r="A207" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B207" s="7">
+        <v>31.0</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -8018,8 +8044,12 @@
       <c r="Z207" s="2"/>
     </row>
     <row r="208">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
+      <c r="A208" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>366</v>
+      </c>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -8046,8 +8076,12 @@
       <c r="Z208" s="2"/>
     </row>
     <row r="209">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
+      <c r="A209" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>367</v>
+      </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -8074,8 +8108,12 @@
       <c r="Z209" s="2"/>
     </row>
     <row r="210">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
+      <c r="A210" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>369</v>
+      </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -8102,8 +8140,12 @@
       <c r="Z210" s="2"/>
     </row>
     <row r="211">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
+      <c r="A211" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>371</v>
+      </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -8130,8 +8172,12 @@
       <c r="Z211" s="2"/>
     </row>
     <row r="212">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
+      <c r="A212" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>373</v>
+      </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -30193,6 +30239,146 @@
       <c r="Y999" s="2"/>
       <c r="Z999" s="2"/>
     </row>
+    <row r="1000">
+      <c r="A1000" s="2"/>
+      <c r="B1000" s="2"/>
+      <c r="C1000" s="2"/>
+      <c r="D1000" s="2"/>
+      <c r="E1000" s="2"/>
+      <c r="F1000" s="2"/>
+      <c r="G1000" s="2"/>
+      <c r="H1000" s="2"/>
+      <c r="I1000" s="2"/>
+      <c r="J1000" s="2"/>
+      <c r="K1000" s="2"/>
+      <c r="L1000" s="2"/>
+      <c r="M1000" s="2"/>
+      <c r="N1000" s="2"/>
+      <c r="O1000" s="2"/>
+      <c r="P1000" s="2"/>
+      <c r="Q1000" s="2"/>
+      <c r="R1000" s="2"/>
+      <c r="S1000" s="2"/>
+      <c r="T1000" s="2"/>
+      <c r="U1000" s="2"/>
+      <c r="V1000" s="2"/>
+      <c r="W1000" s="2"/>
+      <c r="X1000" s="2"/>
+      <c r="Y1000" s="2"/>
+      <c r="Z1000" s="2"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2"/>
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="2"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="2"/>
+      <c r="F1003" s="2"/>
+      <c r="G1003" s="2"/>
+      <c r="H1003" s="2"/>
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2"/>
+      <c r="K1003" s="2"/>
+      <c r="L1003" s="2"/>
+      <c r="M1003" s="2"/>
+      <c r="N1003" s="2"/>
+      <c r="O1003" s="2"/>
+      <c r="P1003" s="2"/>
+      <c r="Q1003" s="2"/>
+      <c r="R1003" s="2"/>
+      <c r="S1003" s="2"/>
+      <c r="T1003" s="2"/>
+      <c r="U1003" s="2"/>
+      <c r="V1003" s="2"/>
+      <c r="W1003" s="2"/>
+      <c r="X1003" s="2"/>
+      <c r="Y1003" s="2"/>
+      <c r="Z1003" s="2"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2"/>
+      <c r="B1004" s="2"/>
+      <c r="C1004" s="2"/>
+      <c r="D1004" s="2"/>
+      <c r="E1004" s="2"/>
+      <c r="F1004" s="2"/>
+      <c r="G1004" s="2"/>
+      <c r="H1004" s="2"/>
+      <c r="I1004" s="2"/>
+      <c r="J1004" s="2"/>
+      <c r="K1004" s="2"/>
+      <c r="L1004" s="2"/>
+      <c r="M1004" s="2"/>
+      <c r="N1004" s="2"/>
+      <c r="O1004" s="2"/>
+      <c r="P1004" s="2"/>
+      <c r="Q1004" s="2"/>
+      <c r="R1004" s="2"/>
+      <c r="S1004" s="2"/>
+      <c r="T1004" s="2"/>
+      <c r="U1004" s="2"/>
+      <c r="V1004" s="2"/>
+      <c r="W1004" s="2"/>
+      <c r="X1004" s="2"/>
+      <c r="Y1004" s="2"/>
+      <c r="Z1004" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
